--- a/TVHS_Data_test/8-1_9-1_2015/8-1_9-1_2015.xlsx
+++ b/TVHS_Data_test/8-1_9-1_2015/8-1_9-1_2015.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="99">
   <si>
     <t xml:space="preserve">LỊCH PHÁT SÓNG QUẢNG CÁO TRÊN SCTV10 </t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>not real</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -843,32 +855,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1178,11 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1203,8 @@
     <col min="3" max="3" width="55.85546875" style="86" customWidth="1"/>
     <col min="4" max="4" width="17" style="86" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="9.140625" style="2"/>
@@ -1958,22 +1969,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2015,7 +2026,7 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -2034,12 +2045,15 @@
       <c r="F5" s="7">
         <v>21</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="87">
         <v>83750</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -2059,12 +2073,15 @@
       <c r="F6" s="7">
         <v>20</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="87">
         <v>79188.034188034188</v>
       </c>
+      <c r="H6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -2084,12 +2101,15 @@
       <c r="F7" s="7">
         <v>15</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="87">
         <v>257111.11111111112</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -2109,8 +2129,11 @@
       <c r="F8" s="7">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="87">
         <v>44625</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="O8" s="9"/>
     </row>
@@ -2134,12 +2157,15 @@
       <c r="F9" s="7">
         <v>18</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="87">
         <v>237252.25225225225</v>
       </c>
+      <c r="H9" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -2159,12 +2185,15 @@
       <c r="F10" s="7">
         <v>14</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="87">
         <v>98571.428571428565</v>
       </c>
+      <c r="H10" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -2184,12 +2213,15 @@
       <c r="F11" s="7">
         <v>19</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="87">
         <v>280952.38095238095</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2209,12 +2241,15 @@
       <c r="F12" s="7">
         <v>15</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="87">
         <v>240935.48387096773</v>
       </c>
+      <c r="H12" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2234,15 +2269,18 @@
       <c r="F13" s="7">
         <v>19</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="87">
         <v>200000</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -2262,15 +2300,18 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="87">
         <v>200000</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -2290,12 +2331,15 @@
       <c r="F15" s="7">
         <v>17</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="87">
         <v>146934.21052631579</v>
       </c>
+      <c r="H15" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -2315,12 +2359,15 @@
       <c r="F16" s="7">
         <v>20</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="87">
         <v>44625</v>
       </c>
+      <c r="H16" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -2340,12 +2387,15 @@
       <c r="F17" s="7">
         <v>17</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="87">
         <v>146934.21052631579</v>
       </c>
+      <c r="H17" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -2365,12 +2415,15 @@
       <c r="F18" s="7">
         <v>21</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="87">
         <v>83750</v>
       </c>
+      <c r="H18" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -2390,12 +2443,15 @@
       <c r="F19" s="7">
         <v>15</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="87">
         <v>257111.11111111112</v>
       </c>
+      <c r="H19" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -2415,8 +2471,11 @@
       <c r="F20" s="7">
         <v>14</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="87">
         <v>98571.428571428565</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="O20" s="9"/>
     </row>
@@ -2440,12 +2499,15 @@
       <c r="F21" s="7">
         <v>18</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="87">
         <v>237252.25225225225</v>
       </c>
+      <c r="H21" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -2465,12 +2527,15 @@
       <c r="F22" s="7">
         <v>19</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="87">
         <v>280952.38095238095</v>
       </c>
+      <c r="H22" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -2490,12 +2555,15 @@
       <c r="F23" s="7">
         <v>20</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="87">
         <v>79188.034188034188</v>
       </c>
+      <c r="H23" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -2515,15 +2583,18 @@
       <c r="F24" s="7">
         <v>19</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="87">
         <v>200000</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -2541,9 +2612,10 @@
         <v>30</v>
       </c>
       <c r="F25" s="7"/>
+      <c r="G25" s="87"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -2563,12 +2635,15 @@
       <c r="F26" s="7">
         <v>14</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="87">
         <v>98571.428571428565</v>
       </c>
+      <c r="H26" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -2588,12 +2663,15 @@
       <c r="F27" s="7">
         <v>19</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="87">
         <v>280952.38095238095</v>
       </c>
+      <c r="H27" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -2611,9 +2689,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="7"/>
+      <c r="G28" s="87"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -2633,12 +2712,15 @@
       <c r="F29" s="7">
         <v>20</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="87">
         <v>79188.034188034188</v>
       </c>
+      <c r="H29" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -2658,12 +2740,15 @@
       <c r="F30" s="7">
         <v>17</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="87">
         <v>146934.21052631579</v>
       </c>
+      <c r="H30" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -2681,9 +2766,10 @@
         <v>30</v>
       </c>
       <c r="F31" s="7"/>
+      <c r="G31" s="87"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -2703,12 +2789,15 @@
       <c r="F32" s="7">
         <v>20</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="87">
         <v>118250</v>
       </c>
+      <c r="H32" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -2726,9 +2815,10 @@
         <v>34</v>
       </c>
       <c r="F33" s="7"/>
+      <c r="G33" s="87"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -2748,12 +2838,15 @@
       <c r="F34" s="7">
         <v>15</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="87">
         <v>257111.11111111112</v>
       </c>
+      <c r="H34" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -2771,6 +2864,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="7"/>
+      <c r="G35" s="87"/>
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2793,12 +2887,15 @@
       <c r="F36" s="7">
         <v>19</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="87">
         <v>212719.29824561405</v>
       </c>
+      <c r="H36" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -2816,9 +2913,10 @@
         <v>38</v>
       </c>
       <c r="F37" s="7"/>
+      <c r="G37" s="87"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -2838,15 +2936,18 @@
       <c r="F38" s="7">
         <v>19</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="87">
         <v>200000</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J38" s="8">
         <v>1</v>
       </c>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -2864,9 +2965,10 @@
         <v>30</v>
       </c>
       <c r="F39" s="7"/>
+      <c r="G39" s="87"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -2886,12 +2988,15 @@
       <c r="F40" s="7">
         <v>21</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="87">
         <v>137619.04761904763</v>
       </c>
+      <c r="H40" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -2909,6 +3014,7 @@
         <v>34</v>
       </c>
       <c r="F41" s="7"/>
+      <c r="G41" s="87"/>
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2931,12 +3037,15 @@
       <c r="F42" s="7">
         <v>18</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="87">
         <v>237252.25225225225</v>
       </c>
+      <c r="H42" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>39</v>
       </c>
@@ -2954,9 +3063,10 @@
         <v>30</v>
       </c>
       <c r="F43" s="7"/>
+      <c r="G43" s="87"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>40</v>
       </c>
@@ -2976,12 +3086,15 @@
       <c r="F44" s="7">
         <v>16</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="87">
         <v>94000</v>
       </c>
+      <c r="H44" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>41</v>
       </c>
@@ -2999,9 +3112,10 @@
         <v>38</v>
       </c>
       <c r="F45" s="7"/>
+      <c r="G45" s="87"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>42</v>
       </c>
@@ -3021,12 +3135,15 @@
       <c r="F46" s="7">
         <v>16</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="87">
         <v>161250</v>
       </c>
+      <c r="H46" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -3044,9 +3161,10 @@
         <v>30</v>
       </c>
       <c r="F47" s="7"/>
+      <c r="G47" s="87"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -3066,15 +3184,18 @@
       <c r="F48" s="7">
         <v>30</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="87">
         <v>200000</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J48" s="8">
         <v>1</v>
       </c>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>45</v>
       </c>
@@ -3094,15 +3215,18 @@
       <c r="F49" s="7">
         <v>30</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="87">
         <v>350000</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="J49" s="8">
         <v>1</v>
       </c>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>46</v>
       </c>
@@ -3120,9 +3244,10 @@
         <v>50</v>
       </c>
       <c r="F50" s="7"/>
+      <c r="G50" s="87"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>47</v>
       </c>
@@ -3142,12 +3267,15 @@
       <c r="F51" s="7">
         <v>15</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="87">
         <v>160215.05376344087</v>
       </c>
+      <c r="H51" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>48</v>
       </c>
@@ -3165,9 +3293,10 @@
         <v>30</v>
       </c>
       <c r="F52" s="7"/>
+      <c r="G52" s="87"/>
       <c r="O52" s="9"/>
     </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>49</v>
       </c>
@@ -3187,12 +3316,15 @@
       <c r="F53" s="7">
         <v>20</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="87">
         <v>118250</v>
       </c>
+      <c r="H53" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>50</v>
       </c>
@@ -3210,9 +3342,10 @@
         <v>54</v>
       </c>
       <c r="F54" s="7"/>
+      <c r="G54" s="87"/>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>51</v>
       </c>
@@ -3232,12 +3365,15 @@
       <c r="F55" s="46">
         <v>17</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="87">
         <v>184264.70588235295</v>
       </c>
+      <c r="H55" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>52</v>
       </c>
@@ -3255,9 +3391,10 @@
         <v>30</v>
       </c>
       <c r="F56" s="7"/>
+      <c r="G56" s="87"/>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" s="7" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>53</v>
       </c>
@@ -3277,12 +3414,15 @@
       <c r="F57" s="7">
         <v>17</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="87">
         <v>181333.33333333334</v>
       </c>
+      <c r="H57" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="O57" s="49"/>
     </row>
-    <row r="58" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>54</v>
       </c>
@@ -3300,9 +3440,10 @@
         <v>60</v>
       </c>
       <c r="F58" s="7"/>
+      <c r="G58" s="87"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>55</v>
       </c>
@@ -3322,12 +3463,15 @@
       <c r="F59" s="7">
         <v>20</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="87">
         <v>79188.034188034188</v>
       </c>
+      <c r="H59" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>56</v>
       </c>
@@ -3345,9 +3489,10 @@
         <v>30</v>
       </c>
       <c r="F60" s="7"/>
+      <c r="G60" s="87"/>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>57</v>
       </c>
@@ -3367,12 +3512,15 @@
       <c r="F61" s="7">
         <v>15</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="87">
         <v>257111.11111111112</v>
       </c>
+      <c r="H61" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>58</v>
       </c>
@@ -3390,9 +3538,10 @@
         <v>54</v>
       </c>
       <c r="F62" s="7"/>
+      <c r="G62" s="87"/>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>59</v>
       </c>
@@ -3412,12 +3561,15 @@
       <c r="F63" s="7">
         <v>17</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="87">
         <v>181333.33333333334</v>
       </c>
+      <c r="H63" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>60</v>
       </c>
@@ -3435,9 +3587,10 @@
         <v>30</v>
       </c>
       <c r="F64" s="7"/>
+      <c r="G64" s="87"/>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>61</v>
       </c>
@@ -3457,12 +3610,15 @@
       <c r="F65" s="7">
         <v>19</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="87">
         <v>280952.38095238095</v>
       </c>
+      <c r="H65" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>62</v>
       </c>
@@ -3480,9 +3636,10 @@
         <v>60</v>
       </c>
       <c r="F66" s="7"/>
+      <c r="G66" s="87"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>63</v>
       </c>
@@ -3502,12 +3659,15 @@
       <c r="F67" s="7">
         <v>17</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="87">
         <v>146934.21052631579</v>
       </c>
+      <c r="H67" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>64</v>
       </c>
@@ -3525,9 +3685,10 @@
         <v>30</v>
       </c>
       <c r="F68" s="7"/>
+      <c r="G68" s="87"/>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>65</v>
       </c>
@@ -3547,12 +3708,15 @@
       <c r="F69" s="46">
         <v>17</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="87">
         <v>184264.70588235295</v>
       </c>
+      <c r="H69" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>66</v>
       </c>
@@ -3570,9 +3734,10 @@
         <v>54</v>
       </c>
       <c r="F70" s="7"/>
+      <c r="G70" s="87"/>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>67</v>
       </c>
@@ -3592,15 +3757,18 @@
       <c r="F71" s="7">
         <v>19</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="87">
         <v>200000</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J71" s="8">
         <v>1</v>
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>68</v>
       </c>
@@ -3618,6 +3786,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="7"/>
+      <c r="G72" s="87"/>
       <c r="O72" s="9"/>
     </row>
     <row r="73" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3640,12 +3809,15 @@
       <c r="F73" s="7">
         <v>19</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="87">
         <v>212719.29824561405</v>
       </c>
+      <c r="H73" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>70</v>
       </c>
@@ -3663,9 +3835,10 @@
         <v>60</v>
       </c>
       <c r="F74" s="7"/>
+      <c r="G74" s="87"/>
       <c r="O74" s="9"/>
     </row>
-    <row r="75" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>71</v>
       </c>
@@ -3685,12 +3858,15 @@
       <c r="F75" s="7">
         <v>20</v>
       </c>
-      <c r="G75" s="95">
+      <c r="G75" s="87">
         <v>155625</v>
       </c>
+      <c r="H75" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>72</v>
       </c>
@@ -3708,9 +3884,10 @@
         <v>30</v>
       </c>
       <c r="F76" s="7"/>
+      <c r="G76" s="87"/>
       <c r="O76" s="9"/>
     </row>
-    <row r="77" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>73</v>
       </c>
@@ -3730,12 +3907,15 @@
       <c r="F77" s="7">
         <v>30</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="87">
         <v>613916.66666666663</v>
       </c>
+      <c r="H77" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>74</v>
       </c>
@@ -3755,8 +3935,11 @@
       <c r="F78" s="7">
         <v>30</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="87">
         <v>300000</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="J78" s="8">
         <v>1</v>
@@ -3783,12 +3966,15 @@
       <c r="F79" s="7">
         <v>18</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="87">
         <v>237252.25225225225</v>
       </c>
+      <c r="H79" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>76</v>
       </c>
@@ -3806,9 +3992,10 @@
         <v>30</v>
       </c>
       <c r="F80" s="7"/>
+      <c r="G80" s="87"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>77</v>
       </c>
@@ -3826,9 +4013,10 @@
         <v>68</v>
       </c>
       <c r="F81" s="7"/>
+      <c r="G81" s="87"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>78</v>
       </c>
@@ -3848,12 +4036,15 @@
       <c r="F82" s="7">
         <v>21</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="87">
         <v>83750</v>
       </c>
+      <c r="H82" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>79</v>
       </c>
@@ -3871,6 +4062,7 @@
         <v>30</v>
       </c>
       <c r="F83" s="7"/>
+      <c r="G83" s="87"/>
       <c r="O83" s="9"/>
     </row>
     <row r="84" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3893,12 +4085,15 @@
       <c r="F84" s="7">
         <v>18</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="87">
         <v>331578.94736842107</v>
       </c>
+      <c r="H84" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>81</v>
       </c>
@@ -3916,9 +4111,10 @@
         <v>72</v>
       </c>
       <c r="F85" s="7"/>
+      <c r="G85" s="87"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>82</v>
       </c>
@@ -3938,12 +4134,15 @@
       <c r="F86" s="7">
         <v>20</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="87">
         <v>57750</v>
       </c>
+      <c r="H86" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>83</v>
       </c>
@@ -3961,9 +4160,10 @@
         <v>30</v>
       </c>
       <c r="F87" s="7"/>
+      <c r="G87" s="87"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>84</v>
       </c>
@@ -3983,9 +4183,10 @@
       <c r="F88" s="7">
         <v>16</v>
       </c>
+      <c r="G88" s="87"/>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>85</v>
       </c>
@@ -4003,9 +4204,10 @@
         <v>76</v>
       </c>
       <c r="F89" s="7"/>
+      <c r="G89" s="87"/>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15" s="58" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="58" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>86</v>
       </c>
@@ -4025,12 +4227,15 @@
       <c r="F90" s="57">
         <v>20</v>
       </c>
-      <c r="G90" s="58">
+      <c r="G90" s="87">
         <v>118250</v>
       </c>
+      <c r="H90" s="58" t="s">
+        <v>95</v>
+      </c>
       <c r="O90" s="59"/>
     </row>
-    <row r="91" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>87</v>
       </c>
@@ -4048,9 +4253,10 @@
         <v>30</v>
       </c>
       <c r="F91" s="7"/>
+      <c r="G91" s="87"/>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>88</v>
       </c>
@@ -4070,12 +4276,15 @@
       <c r="F92" s="60">
         <v>15</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="87">
         <v>160215.05376344087</v>
       </c>
+      <c r="H92" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>89</v>
       </c>
@@ -4093,9 +4302,10 @@
         <v>72</v>
       </c>
       <c r="F93" s="7"/>
+      <c r="G93" s="87"/>
       <c r="O93" s="9"/>
     </row>
-    <row r="94" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>90</v>
       </c>
@@ -4115,12 +4325,15 @@
       <c r="F94" s="7">
         <v>16</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="87">
         <v>94000</v>
       </c>
+      <c r="H94" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>91</v>
       </c>
@@ -4138,9 +4351,10 @@
         <v>30</v>
       </c>
       <c r="F95" s="7"/>
+      <c r="G95" s="87"/>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>92</v>
       </c>
@@ -4160,12 +4374,15 @@
       <c r="F96" s="7">
         <v>15</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="87">
         <v>160215.05376344087</v>
       </c>
+      <c r="H96" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>93</v>
       </c>
@@ -4183,9 +4400,10 @@
         <v>76</v>
       </c>
       <c r="F97" s="7"/>
+      <c r="G97" s="87"/>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>94</v>
       </c>
@@ -4205,12 +4423,15 @@
       <c r="F98" s="7">
         <v>17</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="87">
         <v>181333.33333333334</v>
       </c>
+      <c r="H98" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O98" s="9"/>
     </row>
-    <row r="99" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>95</v>
       </c>
@@ -4228,9 +4449,10 @@
         <v>30</v>
       </c>
       <c r="F99" s="7"/>
+      <c r="G99" s="87"/>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>96</v>
       </c>
@@ -4250,12 +4472,15 @@
       <c r="F100" s="7">
         <v>16</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="87">
         <v>94000</v>
       </c>
+      <c r="H100" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O100" s="9"/>
     </row>
-    <row r="101" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>97</v>
       </c>
@@ -4273,9 +4498,10 @@
         <v>72</v>
       </c>
       <c r="F101" s="7"/>
+      <c r="G101" s="87"/>
       <c r="O101" s="9"/>
     </row>
-    <row r="102" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>98</v>
       </c>
@@ -4295,9 +4521,10 @@
       <c r="F102" s="7">
         <v>16</v>
       </c>
+      <c r="G102" s="87"/>
       <c r="O102" s="9"/>
     </row>
-    <row r="103" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>99</v>
       </c>
@@ -4315,9 +4542,10 @@
         <v>30</v>
       </c>
       <c r="F103" s="7"/>
+      <c r="G103" s="87"/>
       <c r="O103" s="9"/>
     </row>
-    <row r="104" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>100</v>
       </c>
@@ -4337,12 +4565,15 @@
       <c r="F104" s="7">
         <v>17</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="87">
         <v>146934.21052631579</v>
       </c>
+      <c r="H104" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O104" s="9"/>
     </row>
-    <row r="105" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>101</v>
       </c>
@@ -4360,9 +4591,10 @@
         <v>76</v>
       </c>
       <c r="F105" s="7"/>
+      <c r="G105" s="87"/>
       <c r="O105" s="9"/>
     </row>
-    <row r="106" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>102</v>
       </c>
@@ -4380,9 +4612,10 @@
         <v>50</v>
       </c>
       <c r="F106" s="7"/>
+      <c r="G106" s="87"/>
       <c r="O106" s="9"/>
     </row>
-    <row r="107" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>103</v>
       </c>
@@ -4400,9 +4633,10 @@
         <v>30</v>
       </c>
       <c r="F107" s="7"/>
+      <c r="G107" s="87"/>
       <c r="O107" s="9"/>
     </row>
-    <row r="108" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>104</v>
       </c>
@@ -4422,8 +4656,11 @@
       <c r="F108" s="7">
         <v>30</v>
       </c>
-      <c r="G108" s="95">
+      <c r="G108" s="87">
         <v>463888.88888888888</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="O108" s="9"/>
     </row>
@@ -4447,12 +4684,15 @@
       <c r="F109" s="7">
         <v>30</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="87">
         <v>92500</v>
       </c>
+      <c r="H109" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O109" s="9"/>
     </row>
-    <row r="110" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>106</v>
       </c>
@@ -4470,6 +4710,7 @@
         <v>68</v>
       </c>
       <c r="F110" s="7"/>
+      <c r="G110" s="87"/>
       <c r="O110" s="9"/>
     </row>
     <row r="111" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4492,12 +4733,15 @@
       <c r="F111" s="7">
         <v>19</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="87">
         <v>212719.29824561405</v>
       </c>
+      <c r="H111" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O111" s="9"/>
     </row>
-    <row r="112" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>108</v>
       </c>
@@ -4515,6 +4759,7 @@
         <v>30</v>
       </c>
       <c r="F112" s="7"/>
+      <c r="G112" s="87"/>
       <c r="O112" s="9"/>
     </row>
     <row r="113" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4537,12 +4782,15 @@
       <c r="F113" s="7">
         <v>18</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="87">
         <v>331578.94736842107</v>
       </c>
+      <c r="H113" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="O113" s="9"/>
     </row>
-    <row r="114" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>110</v>
       </c>
@@ -4562,12 +4810,15 @@
       <c r="F114" s="7">
         <v>20</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="87">
         <v>79188.034188034188</v>
       </c>
+      <c r="H114" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O114" s="9"/>
     </row>
-    <row r="115" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>111</v>
       </c>
@@ -4585,9 +4836,10 @@
         <v>30</v>
       </c>
       <c r="F115" s="7"/>
+      <c r="G115" s="87"/>
       <c r="O115" s="9"/>
     </row>
-    <row r="116" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>112</v>
       </c>
@@ -4607,12 +4859,15 @@
       <c r="F116" s="7">
         <v>21</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="87">
         <v>83750</v>
       </c>
+      <c r="H116" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O116" s="9"/>
     </row>
-    <row r="117" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>113</v>
       </c>
@@ -4632,12 +4887,15 @@
       <c r="F117" s="7">
         <v>20</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="87">
         <v>57750</v>
       </c>
+      <c r="H117" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O117" s="9"/>
     </row>
-    <row r="118" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>114</v>
       </c>
@@ -4655,6 +4913,7 @@
         <v>30</v>
       </c>
       <c r="F118" s="7"/>
+      <c r="G118" s="87"/>
       <c r="O118" s="9"/>
     </row>
     <row r="119" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4677,12 +4936,15 @@
       <c r="F119" s="7">
         <v>18</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="87">
         <v>237252.25225225225</v>
       </c>
+      <c r="H119" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O119" s="9"/>
     </row>
-    <row r="120" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>116</v>
       </c>
@@ -4702,12 +4964,15 @@
       <c r="F120" s="7">
         <v>15</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="87">
         <v>240935.48387096773</v>
       </c>
+      <c r="H120" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O120" s="9"/>
     </row>
-    <row r="121" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>117</v>
       </c>
@@ -4725,9 +4990,10 @@
         <v>30</v>
       </c>
       <c r="F121" s="7"/>
+      <c r="G121" s="87"/>
       <c r="O121" s="9"/>
     </row>
-    <row r="122" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>118</v>
       </c>
@@ -4747,15 +5013,18 @@
       <c r="F122" s="7">
         <v>19</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="87">
         <v>200000</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J122" s="8">
         <v>1</v>
       </c>
       <c r="O122" s="9"/>
     </row>
-    <row r="123" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>119</v>
       </c>
@@ -4775,12 +5044,15 @@
       <c r="F123" s="7">
         <v>19</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="87">
         <v>280952.38095238095</v>
       </c>
+      <c r="H123" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O123" s="9"/>
     </row>
-    <row r="124" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>120</v>
       </c>
@@ -4798,9 +5070,10 @@
         <v>30</v>
       </c>
       <c r="F124" s="7"/>
+      <c r="G124" s="87"/>
       <c r="O124" s="9"/>
     </row>
-    <row r="125" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>121</v>
       </c>
@@ -4820,12 +5093,15 @@
       <c r="F125" s="7">
         <v>15</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="87">
         <v>257111.11111111112</v>
       </c>
+      <c r="H125" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="O125" s="9"/>
     </row>
-    <row r="126" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>122</v>
       </c>
@@ -4845,11 +5121,14 @@
       <c r="F126" s="7">
         <v>20</v>
       </c>
-      <c r="G126" s="95">
+      <c r="G126" s="87">
         <v>44625</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" s="8" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="63"/>
       <c r="B127" s="64">
         <f>B126+D126</f>
@@ -4873,10 +5152,10 @@
       <c r="A130" s="71"/>
       <c r="B130" s="72"/>
       <c r="C130" s="73"/>
-      <c r="D130" s="92" t="s">
+      <c r="D130" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="E130" s="92"/>
+      <c r="E130" s="91"/>
       <c r="F130" s="74"/>
       <c r="G130" s="74"/>
       <c r="H130" s="74"/>
@@ -4888,10 +5167,10 @@
       <c r="A131" s="71"/>
       <c r="B131" s="72"/>
       <c r="C131" s="73"/>
-      <c r="D131" s="93" t="s">
+      <c r="D131" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="E131" s="93"/>
+      <c r="E131" s="92"/>
       <c r="F131" s="74"/>
       <c r="G131" s="74"/>
       <c r="H131" s="74"/>
@@ -4900,17 +5179,17 @@
       <c r="K131" s="75"/>
     </row>
     <row r="132" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="94" t="s">
+      <c r="A132" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B132" s="94"/>
+      <c r="B132" s="93"/>
       <c r="C132" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D132" s="93" t="s">
+      <c r="D132" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="E132" s="93"/>
+      <c r="E132" s="92"/>
       <c r="F132" s="74"/>
       <c r="G132" s="74"/>
       <c r="H132" s="74"/>
@@ -4999,10 +5278,10 @@
     <row r="139" spans="1:11" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="71"/>
       <c r="B139" s="72"/>
-      <c r="C139" s="87" t="s">
+      <c r="C139" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D139" s="87"/>
+      <c r="D139" s="88"/>
       <c r="E139" s="74"/>
       <c r="F139" s="74"/>
       <c r="G139" s="74"/>
@@ -5014,10 +5293,10 @@
     <row r="140" spans="1:11" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="71"/>
       <c r="B140" s="72"/>
-      <c r="C140" s="87" t="s">
+      <c r="C140" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D140" s="87"/>
+      <c r="D140" s="88"/>
       <c r="E140" s="74"/>
       <c r="F140" s="74"/>
       <c r="G140" s="74"/>
@@ -5068,8 +5347,8 @@
     <row r="144" spans="1:11" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="71"/>
       <c r="B144" s="72"/>
-      <c r="C144" s="87"/>
-      <c r="D144" s="87"/>
+      <c r="C144" s="88"/>
+      <c r="D144" s="88"/>
       <c r="E144" s="74"/>
       <c r="F144" s="74"/>
       <c r="G144" s="74"/>
@@ -5092,15 +5371,15 @@
       <c r="K145" s="78"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="88"/>
-      <c r="J146" s="88"/>
-      <c r="K146" s="88"/>
+      <c r="C146" s="94"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="94"/>
+      <c r="F146" s="94"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="94"/>
+      <c r="K146" s="94"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="80"/>
@@ -5110,16 +5389,16 @@
       <c r="E147" s="84"/>
     </row>
     <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C148" s="89" t="s">
+      <c r="C148" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="D148" s="89"/>
+      <c r="D148" s="95"/>
     </row>
     <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C149" s="87" t="s">
+      <c r="C149" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D149" s="87"/>
+      <c r="D149" s="88"/>
       <c r="E149" s="77"/>
       <c r="F149" s="77"/>
       <c r="G149" s="85"/>
@@ -5127,16 +5406,7 @@
       <c r="I149" s="85"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J127">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Vali Macat D-3X"/>
-        <filter val="Xe đạp tập AirBike"/>
-        <filter val="Xe đạp tập X-Bike - LIVE 30'"/>
-        <filter val="Yến sào Nam Kinh-NEW"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:J127"/>
   <mergeCells count="12">
     <mergeCell ref="C149:D149"/>
     <mergeCell ref="A1:E1"/>
